--- a/testData/UrbanLadderTestData.xlsx
+++ b/testData/UrbanLadderTestData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="27">
   <si>
     <t>Pincode</t>
   </si>
@@ -231,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -320,6 +320,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -758,7 +764,7 @@
       <c r="I2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="J2" t="s" s="106">
+      <c r="J2" t="s" s="112">
         <v>24</v>
       </c>
       <c r="L2" s="6"/>
@@ -791,7 +797,7 @@
       <c r="I3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="107">
+      <c r="J3" t="s" s="113">
         <v>26</v>
       </c>
     </row>

--- a/testData/UrbanLadderTestData.xlsx
+++ b/testData/UrbanLadderTestData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="27">
   <si>
     <t>Pincode</t>
   </si>
@@ -231,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -343,6 +343,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
@@ -764,7 +781,7 @@
       <c r="I2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="J2" t="s" s="112">
+      <c r="J2" t="s" s="129">
         <v>24</v>
       </c>
       <c r="L2" s="6"/>
@@ -797,7 +814,7 @@
       <c r="I3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="113">
+      <c r="J3" t="s" s="130">
         <v>26</v>
       </c>
     </row>

--- a/testData/UrbanLadderTestData.xlsx
+++ b/testData/UrbanLadderTestData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
   <si>
     <t>Pincode</t>
   </si>
@@ -231,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -360,6 +360,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
@@ -781,7 +787,7 @@
       <c r="I2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="J2" t="s" s="129">
+      <c r="J2" t="s" s="135">
         <v>24</v>
       </c>
       <c r="L2" s="6"/>
@@ -814,7 +820,7 @@
       <c r="I3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="130">
+      <c r="J3" t="s" s="136">
         <v>26</v>
       </c>
     </row>
